--- a/out/path chart.xlsx
+++ b/out/path chart.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="path" localSheetId="0">Sheet1!$A$1:$H$188</definedName>
-    <definedName name="robot" localSheetId="0">Sheet1!$J$1:$L$189</definedName>
+    <definedName name="path_1" localSheetId="0">Sheet1!$A$1:$H$188</definedName>
+    <definedName name="robot_1" localSheetId="0">Sheet1!$J$1:$L$189</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="path" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Aaron Fang\Desktop\RamseteTester\out\path.csv" comma="1">
+  <connection id="1" interval="1" name="path" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\Aaron Fang\Desktop\RamseteTester\out\path.csv" tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -43,8 +43,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="robot" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Aaron Fang\Desktop\RamseteTester\out\robot.csv" comma="1">
+  <connection id="2" interval="1" name="robot" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\Aaron Fang\Desktop\RamseteTester\out\robot.csv" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>dt</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>heading</t>
+  </si>
+  <si>
+    <t>t0</t>
   </si>
 </sst>
 </file>
@@ -170,8 +173,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Robot Position vs Path</a:t>
+              <a:t>Robot</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Position vs. Path</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1385,7 +1393,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Robot Position</c:v>
+            <c:v>Robot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1422,562 +1430,562 @@
                   <c:v>6.26666666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1.9604770278351998E-3</c:v>
+                  <c:v>1.9601060061855999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>4.6295278096778599E-3</c:v>
+                  <c:v>4.6273026532123599E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>9.0811174353138801E-3</c:v>
+                  <c:v>9.0733366848019994E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.5764426376641799E-2</c:v>
+                  <c:v>1.5743710913813099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>2.5130951442495199E-2</c:v>
+                  <c:v>2.5084454774189802E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>3.7634901938596303E-2</c:v>
+                  <c:v>3.7542226293292499E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.3733540632226302E-2</c:v>
+                  <c:v>5.3564411256162799E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>7.3887450325805806E-2</c:v>
+                  <c:v>7.3599218505942601E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>9.8107807734830701E-2</c:v>
+                  <c:v>9.7649424270468799E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.12640500374892799</c:v>
+                  <c:v>0.12571776377671001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.15878851972102301</c:v>
+                  <c:v>0.15780692353944101</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.19526681999312501</c:v>
+                  <c:v>0.19391953384626801</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.23584726252597901</c:v>
+                  <c:v>0.23405816147070099</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.28053602906771102</c:v>
+                  <c:v>0.278225302643752</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.32933807583310198</c:v>
+                  <c:v>0.32642337631311202</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.38225710518404299</c:v>
+                  <c:v>0.37865471771740999</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.43929555831731898</c:v>
+                  <c:v>0.43492157230134998</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.50045462849220301</c:v>
+                  <c:v>0.495226089995633</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.56573429388095497</c:v>
+                  <c:v>0.55957031988362904</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.63466769528296296</c:v>
+                  <c:v>0.62750655321342397</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.70678577034119905</c:v>
+                  <c:v>0.69858628077684104</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.78161831196426401</c:v>
+                  <c:v>0.77236033458870001</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.85869490188626896</c:v>
+                  <c:v>0.84837902664690801</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.93754570622593902</c:v>
+                  <c:v>0.92619228358880201</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>1.0177021296286199</c:v>
+                  <c:v>1.0053497763172801</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>1.0986973324989</c:v>
+                  <c:v>1.0854010439197299</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>1.1800666218724301</c:v>
+                  <c:v>1.1658956114398999</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>1.2613477307112899</c:v>
+                  <c:v>1.2463831012858499</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>1.3425463377323801</c:v>
+                  <c:v>1.3268636147450299</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>1.4236677559502799</c:v>
+                  <c:v>1.40733725165535</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>1.50471695622802</c:v>
+                  <c:v>1.48780411042598</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>1.5856985893112301</c:v>
+                  <c:v>1.56826428805773</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>1.6666170064433099</c:v>
+                  <c:v>1.64871788016331</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>1.7474762786529801</c:v>
+                  <c:v>1.7291649809870699</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>1.8282802147997701</c:v>
+                  <c:v>1.8096056834247001</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>1.9090323784573999</c:v>
+                  <c:v>1.8900400790424301</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>1.98973610370984</c:v>
+                  <c:v>1.9704682580961199</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>2.0703945099302099</c:v>
+                  <c:v>2.0508903095500002</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>2.15101051560793</c:v>
+                  <c:v>2.1313063210951402</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>2.2315868512852499</c:v>
+                  <c:v>2.2117163791676901</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>2.3121260716609302</c:v>
+                  <c:v>2.2921205689668001</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>2.3926305669142902</c:v>
+                  <c:v>2.3725189744723698</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>2.4731025733000598</c:v>
+                  <c:v>2.45291167846247</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>2.5535441830609602</c:v>
+                  <c:v>2.5332987625305399</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>2.6339573537018701</c:v>
+                  <c:v>2.6136803071023702</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>2.71434391666679</c:v>
+                  <c:v>2.69405639145277</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>2.7947055854570002</c:v>
+                  <c:v>2.7744270937220699</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>2.8750439632264202</c:v>
+                  <c:v>2.8547924909323501</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>2.9553605498878701</c:v>
+                  <c:v>2.9351526590034198</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>3.0356567487616202</c:v>
+                  <c:v>3.0155076727686501</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>3.1159338727958801</c:v>
+                  <c:v>3.0958576059904401</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>3.1961931503866099</c:v>
+                  <c:v>3.1762025313756101</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>3.2764357308226102</c:v>
+                  <c:v>3.2565425205905001</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>3.3566626893798999</c:v>
+                  <c:v>3.3368776442758201</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>3.4368750320880599</c:v>
+                  <c:v>3.4172079720613602</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>3.5170737001896302</c:v>
+                  <c:v>3.4975335725804499</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>3.5972595743122699</c:v>
+                  <c:v>3.5778545134842301</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>3.6774334783723299</c:v>
+                  <c:v>3.6581708614556701</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>3.75759618322699</c:v>
+                  <c:v>3.7384826822234798</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>3.8377484100911499</c:v>
+                  <c:v>3.81879004057572</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>3.9178908337343801</c:v>
+                  <c:v>3.8990930003732802</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>3.9980240854719402</c:v>
+                  <c:v>3.97939162456316</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>4.0997414586719101</c:v>
+                  <c:v>4.0851755441925599</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>4.1782874407125501</c:v>
+                  <c:v>4.1650451984305201</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>4.2568050490900697</c:v>
+                  <c:v>4.2448156801907402</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>4.33523325974169</c:v>
+                  <c:v>4.32443017479254</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>4.4135083138401496</c:v>
+                  <c:v>4.4038352086359698</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>4.4915606968985404</c:v>
+                  <c:v>4.4829804368999397</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>4.5693121970598902</c:v>
+                  <c:v>4.5618184547325402</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>4.6466728941499102</c:v>
+                  <c:v>4.6403046261283798</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>4.7235379493553404</c:v>
+                  <c:v>4.7183969261876797</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>4.7997840733532904</c:v>
+                  <c:v>4.7960557935563601</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>4.8752655503370699</c:v>
+                  <c:v>4.8732439906477101</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>4.94980968800939</c:v>
+                  <c:v>4.9499264698452601</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>5.0232115497575496</c:v>
+                  <c:v>5.0260702442999996</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>5.0952278055382001</c:v>
+                  <c:v>5.1016442622613898</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>5.1655695124703502</c:v>
+                  <c:v>5.1766192840674901</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>5.2340370033637402</c:v>
+                  <c:v>5.2509677610901901</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>5.30326981878338</c:v>
+                  <c:v>5.3246637159964498</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>5.37319264043981</c:v>
+                  <c:v>5.3976826237514199</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>5.4437272900647198</c:v>
+                  <c:v>5.47000129278854</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>5.5147920417380503</c:v>
+                  <c:v>5.5415977457603898</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>5.5863007671399503</c:v>
+                  <c:v>5.6124510992346703</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>5.6581618668073101</c:v>
+                  <c:v>5.6825414416270901</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>5.7302769283599302</c:v>
+                  <c:v>5.7518497085615703</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>5.8025390367512797</c:v>
+                  <c:v>5.8203575547112099</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>5.8748306408259099</c:v>
+                  <c:v>5.8880472210077901</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>5.9470208532376398</c:v>
+                  <c:v>5.9549013958825201</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>6.0189620252146803</c:v>
+                  <c:v>6.0209030689366596</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>6.0904853909599899</c:v>
+                  <c:v>6.0860353750975804</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>6.1613955151374604</c:v>
+                  <c:v>6.1502814268837103</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>6.2314631962923404</c:v>
+                  <c:v>6.2136241318744796</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>6.3004163730043903</c:v>
+                  <c:v>6.2760459917938798</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>6.3679284405198997</c:v>
+                  <c:v>6.3375288787586097</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>6.4336032042173104</c:v>
+                  <c:v>6.3980537831532596</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>6.4969554622094501</c:v>
+                  <c:v>6.4576005261881697</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>6.5573859135729204</c:v>
+                  <c:v>6.5161474284022196</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>8.7918295718220101</c:v>
+                  <c:v>6.6404767577950796</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>8.7673258502883904</c:v>
+                  <c:v>6.6978836876214798</c:v>
                 </c:pt>
                 <c:pt idx="101" formatCode="General">
-                  <c:v>8.7474255525977593</c:v>
+                  <c:v>6.75736124292707</c:v>
                 </c:pt>
                 <c:pt idx="102" formatCode="General">
-                  <c:v>8.7293429250075896</c:v>
+                  <c:v>6.81886958666502</c:v>
                 </c:pt>
                 <c:pt idx="103" formatCode="General">
-                  <c:v>8.7129293259018592</c:v>
+                  <c:v>6.8823526868362999</c:v>
                 </c:pt>
                 <c:pt idx="104" formatCode="General">
-                  <c:v>8.6979713613928809</c:v>
+                  <c:v>6.9477404074316098</c:v>
                 </c:pt>
                 <c:pt idx="105" formatCode="General">
-                  <c:v>8.6841831848142998</c:v>
+                  <c:v>7.0149508271090104</c:v>
                 </c:pt>
                 <c:pt idx="106" formatCode="General">
-                  <c:v>8.6711964892641795</c:v>
+                  <c:v>7.0838927004790699</c:v>
                 </c:pt>
                 <c:pt idx="107" formatCode="General">
-                  <c:v>8.65854750663995</c:v>
+                  <c:v>7.1544679815882501</c:v>
                 </c:pt>
                 <c:pt idx="108" formatCode="General">
-                  <c:v>8.6456601951140204</c:v>
+                  <c:v>7.2265743388020303</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="General">
-                  <c:v>8.6318247298781596</c:v>
+                  <c:v>7.3001076028598497</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="General">
-                  <c:v>8.6161257008543704</c:v>
+                  <c:v>7.3749641029072501</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="General">
-                  <c:v>8.5979887350333595</c:v>
+                  <c:v>7.4510428562525801</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="General">
-                  <c:v>8.57664160618293</c:v>
+                  <c:v>7.5282475839868903</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="General">
-                  <c:v>8.5510106277912001</c:v>
+                  <c:v>7.6064885248738596</c:v>
                 </c:pt>
                 <c:pt idx="114" formatCode="General">
-                  <c:v>8.5195268880583299</c:v>
+                  <c:v>7.6856840144235496</c:v>
                 </c:pt>
                 <c:pt idx="115" formatCode="General">
-                  <c:v>8.4818667668253909</c:v>
+                  <c:v>7.7657617885663299</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="General">
-                  <c:v>8.4359943927590901</c:v>
+                  <c:v>7.8466599700749997</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="General">
-                  <c:v>8.3816560629514107</c:v>
+                  <c:v>7.92837800129029</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="General">
-                  <c:v>8.3160514384126891</c:v>
+                  <c:v>8.0116232074782907</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="General">
-                  <c:v>8.2390687393374495</c:v>
+                  <c:v>8.0961414548152604</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="General">
-                  <c:v>8.1469668328077702</c:v>
+                  <c:v>8.1817106736717093</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="General">
-                  <c:v>8.0402885555945005</c:v>
+                  <c:v>8.2681923417304102</c:v>
                 </c:pt>
                 <c:pt idx="122" formatCode="General">
-                  <c:v>7.9148865992565698</c:v>
+                  <c:v>8.3555819457314193</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="General">
-                  <c:v>7.7735660042118297</c:v>
+                  <c:v>8.4434348503313004</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="General">
-                  <c:v>7.6141266965087899</c:v>
+                  <c:v>8.5313942191345404</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="General">
-                  <c:v>7.4346844232338496</c:v>
+                  <c:v>8.6191925011406294</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="General">
-                  <c:v>7.2343140650880802</c:v>
+                  <c:v>8.7066489117612704</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="General">
-                  <c:v>7.0134911981099499</c:v>
+                  <c:v>8.79366374351814</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="General">
-                  <c:v>6.7742123531271599</c:v>
+                  <c:v>8.8802107694129297</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>6.5198460537764804</c:v>
+                  <c:v>8.9663288023078103</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
-                  <c:v>6.2553000940897103</c:v>
+                  <c:v>9.0521130488773593</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="General">
-                  <c:v>5.9729006924136296</c:v>
+                  <c:v>9.1377499362334405</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="General">
-                  <c:v>5.6761047526339503</c:v>
+                  <c:v>9.2220666088946004</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="General">
-                  <c:v>5.3682955589088603</c:v>
+                  <c:v>9.30515802561799</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="General">
-                  <c:v>5.0532507380831797</c:v>
+                  <c:v>9.3871966784437397</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="General">
-                  <c:v>4.7214383035227598</c:v>
+                  <c:v>9.4684168516482803</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="General">
-                  <c:v>4.3742520807314298</c:v>
+                  <c:v>9.5491014036043698</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="General">
-                  <c:v>4.0126852960942703</c:v>
+                  <c:v>9.6295706011412197</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="General">
-                  <c:v>3.6374880070091802</c:v>
+                  <c:v>9.7101724838692505</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="General">
-                  <c:v>3.2493238467871199</c:v>
+                  <c:v>9.7912742524524692</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="General">
-                  <c:v>2.8495556725777802</c:v>
+                  <c:v>9.8732542283157407</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>2.4253008158578302</c:v>
+                  <c:v>9.9565363574946595</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
-                  <c:v>1.97543360714891</c:v>
+                  <c:v>10.0393286090953</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="General">
-                  <c:v>1.49852929097624</c:v>
+                  <c:v>10.1220739403305</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="General">
-                  <c:v>0.99290551864630805</c:v>
+                  <c:v>10.205235462277599</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>0.45665511632389799</c:v>
+                  <c:v>10.2892855493791</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>-0.11232445399872799</c:v>
+                  <c:v>10.374695769660701</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>-0.71629908928907404</c:v>
+                  <c:v>10.4619269915871</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
-                  <c:v>-1.3576565907731</c:v>
+                  <c:v>10.5514736665579</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="General">
-                  <c:v>-2.0388469673379399</c:v>
+                  <c:v>10.6412754720678</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="General">
-                  <c:v>-2.7622927374525199</c:v>
+                  <c:v>10.731897123382501</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="General">
-                  <c:v>-3.5318182690428701</c:v>
+                  <c:v>10.823894763596099</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="General">
-                  <c:v>-4.34365359661368</c:v>
+                  <c:v>10.9178033737505</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="General">
-                  <c:v>-5.2072380871865098</c:v>
+                  <c:v>11.014173681238701</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="General">
-                  <c:v>-6.1215874080415</c:v>
+                  <c:v>11.110821095357601</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="General">
-                  <c:v>-7.0899409777113203</c:v>
+                  <c:v>11.208409429024501</c:v>
                 </c:pt>
                 <c:pt idx="156" formatCode="General">
-                  <c:v>-8.1156958945070699</c:v>
+                  <c:v>11.307576727501299</c:v>
                 </c:pt>
                 <c:pt idx="157" formatCode="General">
-                  <c:v>-9.20022839510575</c:v>
+                  <c:v>11.408920365698901</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
-                  <c:v>-10.3515686592074</c:v>
+                  <c:v>11.512650974784499</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="General">
-                  <c:v>-11.561793979964801</c:v>
+                  <c:v>11.6186269401929</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="General">
-                  <c:v>-12.8239148385608</c:v>
+                  <c:v>11.723682723505799</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="General">
-                  <c:v>-14.135116492283901</c:v>
+                  <c:v>11.827608410990299</c:v>
                 </c:pt>
                 <c:pt idx="162" formatCode="General">
-                  <c:v>-15.484619617919</c:v>
+                  <c:v>11.9299773076451</c:v>
                 </c:pt>
                 <c:pt idx="163" formatCode="General">
-                  <c:v>-16.859331769029101</c:v>
+                  <c:v>12.030150434766</c:v>
                 </c:pt>
                 <c:pt idx="164" formatCode="General">
-                  <c:v>-18.244339277411498</c:v>
+                  <c:v>12.1272958259503</c:v>
                 </c:pt>
                 <c:pt idx="165" formatCode="General">
-                  <c:v>-19.6235891339226</c:v>
+                  <c:v>12.2203763433475</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>-20.980635398010801</c:v>
+                  <c:v>12.310704752528601</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
-                  <c:v>-22.304826088836901</c:v>
+                  <c:v>12.396898763602399</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>-23.588689595081199</c:v>
+                  <c:v>12.477973947297301</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>-24.811446178361901</c:v>
+                  <c:v>12.555109911861299</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>-25.9663200012617</c:v>
+                  <c:v>12.6272037780827</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>-27.0489123598358</c:v>
+                  <c:v>12.6933991774553</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>-28.054870266698501</c:v>
+                  <c:v>12.754517893509499</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>-28.963201811541101</c:v>
+                  <c:v>12.809673941995699</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="General">
-                  <c:v>-29.772270235748099</c:v>
+                  <c:v>12.859386076343499</c:v>
                 </c:pt>
                 <c:pt idx="175" formatCode="General">
-                  <c:v>-30.480646373069298</c:v>
+                  <c:v>12.902857567283201</c:v>
                 </c:pt>
                 <c:pt idx="176" formatCode="General">
-                  <c:v>-31.072259380296199</c:v>
+                  <c:v>12.940376941379199</c:v>
                 </c:pt>
                 <c:pt idx="177" formatCode="General">
-                  <c:v>-31.550575727664398</c:v>
+                  <c:v>12.9712989506819</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>-31.926585305918401</c:v>
+                  <c:v>12.996188503012601</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
-                  <c:v>-32.214641123296303</c:v>
+                  <c:v>13.0154031714923</c:v>
                 </c:pt>
                 <c:pt idx="180" formatCode="General">
-                  <c:v>-32.419659343083303</c:v>
+                  <c:v>13.0295161466307</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>-32.557940741366799</c:v>
+                  <c:v>13.0394164295392</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>-32.644130601049802</c:v>
+                  <c:v>13.0457643756596</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
-                  <c:v>-32.691350895161001</c:v>
+                  <c:v>13.0493081147279</c:v>
                 </c:pt>
                 <c:pt idx="184" formatCode="General">
-                  <c:v>-32.7116037962059</c:v>
+                  <c:v>13.050845104650801</c:v>
                 </c:pt>
                 <c:pt idx="185" formatCode="General">
-                  <c:v>-32.716224488228903</c:v>
+                  <c:v>13.051197646950801</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="General">
-                  <c:v>-32.716224488228903</c:v>
+                  <c:v>13.051197646950801</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="General">
-                  <c:v>-32.716224488228903</c:v>
+                  <c:v>13.051197646950801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,376 +2189,376 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-5.4156353510810403E-3</c:v>
+                  <c:v>2.30389789849508E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.0724529542346903E-3</c:v>
+                  <c:v>3.78156209200485E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.0759292249817601E-2</c:v>
+                  <c:v>5.2793428327921202E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.34984505819524E-2</c:v>
+                  <c:v>6.7940362200982797E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.6310314175211098E-2</c:v>
+                  <c:v>8.3227579573434598E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.9213585732285501E-2</c:v>
+                  <c:v>9.8629287600899493E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.2225426643712201E-2</c:v>
+                  <c:v>1.1412258366460501E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.53615060192591E-2</c:v>
+                  <c:v>1.2968729038513101E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.8635946566053099E-2</c:v>
+                  <c:v>1.45305791821375E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.2061153280195903E-2</c:v>
+                  <c:v>1.60962875214655E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.5647505137023E-2</c:v>
+                  <c:v>1.76645581162326E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-3.9402882314154099E-2</c:v>
+                  <c:v>1.9234306413711499E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.3331991581568703E-2</c:v>
+                  <c:v>2.08046464453586E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-4.7435439735417403E-2</c:v>
+                  <c:v>2.2374879238274501E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-5.1708488473131697E-2</c:v>
+                  <c:v>2.3944482466127199E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-5.1840554101368203E-2</c:v>
+                  <c:v>2.5513101352450999E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-5.2000942963555903E-2</c:v>
+                  <c:v>2.7080540819920999E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-5.2198077810207702E-2</c:v>
+                  <c:v>2.86467588788668E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-5.2441106650836497E-2</c:v>
+                  <c:v>3.02118612462101E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-5.2740001817214499E-2</c:v>
+                  <c:v>3.1776097191909297E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-5.3105662284991702E-2</c:v>
+                  <c:v>3.3339856617384298E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-5.3550017731410902E-2</c:v>
+                  <c:v>3.4903668381081901E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-5.4086131417101502E-2</c:v>
+                  <c:v>3.6468199898436797E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-5.47282968518924E-2</c:v>
+                  <c:v>3.8034258058403901E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-5.54921199556557E-2</c:v>
+                  <c:v>3.9602791512318998E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-5.6394573493400602E-2</c:v>
+                  <c:v>4.1174894408328902E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-5.7454003070383598E-2</c:v>
+                  <c:v>4.2751811659512501E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-5.8690052590280199E-2</c:v>
+                  <c:v>4.4334945846760197E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-6.01234597852306E-2</c:v>
+                  <c:v>4.5925865873245798E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-6.1775646043184702E-2</c:v>
+                  <c:v>4.75263174887419E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.3667984452044399E-2</c:v>
+                  <c:v>4.9138235800733801E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.5820568172115401E-2</c:v>
+                  <c:v>5.0763759872760897E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-6.8250206097917598E-2</c:v>
+                  <c:v>5.2405249459569897E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-7.0967225882736004E-2</c:v>
+                  <c:v>5.4065303845598302E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-7.3970436984503202E-2</c:v>
+                  <c:v>5.5746782607524699E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.118851033716027</c:v>
+                  <c:v>5.6238616182417503E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.117429608404801</c:v>
+                  <c:v>5.5083682421978697E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.117380098730984</c:v>
+                  <c:v>5.3922319605716397E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.117260568530626</c:v>
+                  <c:v>5.2775311727829601E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.11707435123458799</c:v>
+                  <c:v>5.1665710101401502E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.116822837806702</c:v>
+                  <c:v>5.0618691391420202E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.116503355011928</c:v>
+                  <c:v>4.9661426967767201E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.11610588851525799</c:v>
+                  <c:v>4.8822983127920903E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.11560799134789</c:v>
+                  <c:v>4.8134266689163499E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.114966830554437</c:v>
+                  <c:v>4.7628022484069402E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.11410671092793501</c:v>
+                  <c:v>4.7338877610243899E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.113884775591947</c:v>
+                  <c:v>4.7303411099996202E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.11340191539812</c:v>
+                  <c:v>4.7560205016010097E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.11250481460077499</c:v>
+                  <c:v>4.81498015155487E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.110939530026733</c:v>
+                  <c:v>4.9114447647544898E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.11025778159225599</c:v>
+                  <c:v>5.0497454807215E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.108598198877672</c:v>
+                  <c:v>5.2341937804929399E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.108189941976108</c:v>
+                  <c:v>5.4688647703070199E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.106261339672828</c:v>
+                  <c:v>5.50059455841415E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.105948236413217</c:v>
+                  <c:v>5.5977807887579903E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.103276970454589</c:v>
+                  <c:v>5.7628346105070498E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.10272209478470699</c:v>
+                  <c:v>5.9952509924668003E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-9.9000877967388504E-2</c:v>
+                  <c:v>6.01953417781406E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-9.8815067148315006E-2</c:v>
+                  <c:v>6.1109968541804997E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-9.5913328851815194E-2</c:v>
+                  <c:v>6.2599470404953506E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-9.0302423253446798E-2</c:v>
+                  <c:v>6.4540714346538297E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-8.2416144494636703E-2</c:v>
+                  <c:v>6.6804080023312201E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-7.32147296887138E-2</c:v>
+                  <c:v>6.9272679104604495E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-6.4154602206642597E-2</c:v>
+                  <c:v>7.1855759279985998E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-5.6991506976246498E-2</c:v>
+                  <c:v>7.4494277389099098E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-5.34758375736046E-2</c:v>
+                  <c:v>7.7159593411954802E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-3.8406634755607801E-2</c:v>
+                  <c:v>7.9847922966888599E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-2.6735397755914901E-2</c:v>
+                  <c:v>7.9883397099740794E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.9491710967285501E-2</c:v>
+                  <c:v>8.0126447360946595E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.7333298720887302E-2</c:v>
+                  <c:v>8.0584203830529402E-2</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="0.00E+00">
-                  <c:v>-7.6537016612041996E-4</c:v>
+                  <c:v>8.1266824587363604E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2859497088847101E-2</c:v>
+                  <c:v>8.2186213329592001E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.3350566497299399E-2</c:v>
+                  <c:v>8.3355517544189003E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.0624597915205099E-2</c:v>
+                  <c:v>8.4789052011030999E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.4655040354989598E-2</c:v>
+                  <c:v>8.6502351292843005E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.5437974139473402E-2</c:v>
+                  <c:v>8.8512130148638707E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.8119293414630402E-2</c:v>
+                  <c:v>9.0835995334047098E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8.1029872286700999E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.104433126121928</c:v>
+                  <c:v>9.0875866406957703E-2</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="0.00E+00">
+                  <c:v>9.13759318050337E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.12863454043164699</c:v>
+                  <c:v>9.2319366729338798E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15398333788962101</c:v>
+                  <c:v>9.3697610141632401E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.18087876350207099</c:v>
+                  <c:v>9.5508892667412207E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.20978030778981399</c:v>
+                  <c:v>9.7756305417357095E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.24122148592199499</c:v>
+                  <c:v>0.100445413125085</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.275826875242973</c:v>
+                  <c:v>0.100768859614974</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.31433190243651699</c:v>
+                  <c:v>0.101685083029202</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.35760420358551398</c:v>
+                  <c:v>0.103164569138138</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.35834653541255701</c:v>
+                  <c:v>0.10518849979137899</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.40870749034978199</c:v>
+                  <c:v>0.107744082537767</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.412244087235353</c:v>
+                  <c:v>0.107792777000716</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.41497403422822399</c:v>
+                  <c:v>0.108572781556425</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.416765426748746</c:v>
+                  <c:v>0.11002746467970299</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.41743841496892498</c:v>
+                  <c:v>0.112116469447506</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.48494683426762403</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.4902201057951</c:v>
+                  <c:v>0.11480661190947899</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="0.00E+00">
+                  <c:v>0.11798280828686999</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.49169023171883702</c:v>
+                  <c:v>0.11812419903957801</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.56567623790612298</c:v>
+                  <c:v>0.118759071457835</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.64256752795401695</c:v>
+                  <c:v>0.119641156839222</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.71927293066588505</c:v>
+                  <c:v>0.120545010429617</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.79187211324193196</c:v>
+                  <c:v>0.121267332678205</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.85576917215694104</c:v>
+                  <c:v>0.12163193156053401</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.90600171381549399</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.93770554081093405</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.94813851805006399</c:v>
+                  <c:v>0.124421279358047</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="0.00E+00">
+                  <c:v>0.12614035851774999</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="0.00E+00">
+                  <c:v>0.12684640560636801</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.0170433644266601</c:v>
+                  <c:v>0.12923121505127599</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.06601461489425</c:v>
+                  <c:v>0.13045441001070701</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.09452048104449</c:v>
+                  <c:v>0.13070168494639101</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.1029588980068801</c:v>
+                  <c:v>0.13224063598442601</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.15577104666466</c:v>
+                  <c:v>0.13278663408237801</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.1887115289146599</c:v>
+                  <c:v>0.134283353887232</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.2037768005102101</c:v>
+                  <c:v>0.13487397218575101</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.24828291218292</c:v>
+                  <c:v>0.136144942139939</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.2748451612526801</c:v>
+                  <c:v>0.136660343844592</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.28722783078894</c:v>
+                  <c:v>0.137613563722703</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.29004211633029</c:v>
+                  <c:v>0.13802569578906099</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.305546151548</c:v>
+                  <c:v>0.13811808617881499</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.3136884949476499</c:v>
+                  <c:v>0.13849216037024201</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.3174999599469099</c:v>
+                  <c:v>0.138668761434487</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.3190117863876401</c:v>
+                  <c:v>0.13873931183813701</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.31947170727609</c:v>
+                  <c:v>0.138760891911134</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.3195569088671899</c:v>
+                  <c:v>0.13876490538337899</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.3195613543754201</c:v>
+                  <c:v>0.13876511525692101</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.3195613543754201</c:v>
+                  <c:v>0.13876511525692101</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.3195613543754201</c:v>
+                  <c:v>0.13876511525692101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,14 +2573,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="628353616"/>
-        <c:axId val="637065904"/>
+        <c:axId val="1535245168"/>
+        <c:axId val="1535240816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="628353616"/>
+        <c:axId val="1535245168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2612,8 +2619,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>X Axis (ft)</a:t>
+                  <a:t>Robot</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> X-Pos (ft)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2684,12 +2696,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637065904"/>
+        <c:crossAx val="1535240816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637065904"/>
+        <c:axId val="1535240816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,13 +2742,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Y</a:t>
+                  <a:t>Robot Y-Pos (ft)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Axis (ft)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2807,7 +2814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628353616"/>
+        <c:crossAx val="1535245168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3448,20 +3455,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>113809</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3480,11 +3487,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="robot" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="robot_1" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="path" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="path_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3750,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,8 +3772,8 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3900,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.9604770278351998E-3</v>
+        <v>1.9601060061855999E-3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3935,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.6295278096778599E-3</v>
+        <v>4.6273026532123599E-3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3970,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.0811174353138801E-3</v>
+        <v>9.0733366848019994E-3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4005,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.5764426376641799E-2</v>
+        <v>1.5743710913813099E-2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4040,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.5130951442495199E-2</v>
+        <v>2.5084454774189802E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4075,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.7634901938596303E-2</v>
+        <v>3.7542226293292499E-2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4110,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.3733540632226302E-2</v>
+        <v>5.3564411256162799E-2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4145,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.3887450325805806E-2</v>
+        <v>7.3599218505942601E-2</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4180,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.8107807734830701E-2</v>
+        <v>9.7649424270468799E-2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4215,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.12640500374892799</v>
+        <v>0.12571776377671001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4250,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.15878851972102301</v>
+        <v>0.15780692353944101</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4285,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.19526681999312501</v>
+        <v>0.19391953384626801</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4320,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.23584726252597901</v>
+        <v>0.23405816147070099</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4329,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.02</v>
       </c>
@@ -4355,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.28053602906771102</v>
+        <v>0.278225302643752</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4364,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.02</v>
       </c>
@@ -4390,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.32933807583310198</v>
+        <v>0.32642337631311202</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4399,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.02</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.38225710518404299</v>
+        <v>0.37865471771740999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4434,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.02</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.43929555831731898</v>
+        <v>0.43492157230134998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4469,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.02</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.50045462849220301</v>
+        <v>0.495226089995633</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4504,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -4530,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.56573429388095497</v>
+        <v>0.55957031988362904</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4539,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.02</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.63466769528296296</v>
+        <v>0.62750655321342397</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4574,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.02</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.70678577034119905</v>
+        <v>0.69858628077684104</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4609,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.02</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.78161831196426401</v>
+        <v>0.77236033458870001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4644,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.02</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.85869490188626896</v>
+        <v>0.84837902664690801</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -4679,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.02</v>
       </c>
@@ -4705,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.93754570622593902</v>
+        <v>0.92619228358880201</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -4714,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.02</v>
       </c>
@@ -4740,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.0177021296286199</v>
+        <v>1.0053497763172801</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -4749,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.02</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.0986973324989</v>
+        <v>1.0854010439197299</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4784,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.02</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.1800666218724301</v>
+        <v>1.1658956114398999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4819,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.02</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.2613477307112899</v>
+        <v>1.2463831012858499</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -4853,8 +4860,11 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.02</v>
       </c>
@@ -4880,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.3425463377323801</v>
+        <v>1.3268636147450299</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4915,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.4236677559502799</v>
+        <v>1.40733725165535</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4950,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.50471695622802</v>
+        <v>1.48780411042598</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4985,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.5856985893112301</v>
+        <v>1.56826428805773</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5020,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.6666170064433099</v>
+        <v>1.64871788016331</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -5055,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.7474762786529801</v>
+        <v>1.7291649809870699</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -5090,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.8282802147997701</v>
+        <v>1.8096056834247001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -5125,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.9090323784573999</v>
+        <v>1.8900400790424301</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -5160,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.98973610370984</v>
+        <v>1.9704682580961199</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -5195,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2.0703945099302099</v>
+        <v>2.0508903095500002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -5230,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2.15101051560793</v>
+        <v>2.1313063210951402</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -5265,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2.2315868512852499</v>
+        <v>2.2117163791676901</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5300,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2.3121260716609302</v>
+        <v>2.2921205689668001</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5335,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2.3926305669142902</v>
+        <v>2.3725189744723698</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5370,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.4731025733000598</v>
+        <v>2.45291167846247</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -5405,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2.5535441830609602</v>
+        <v>2.5332987625305399</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5440,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2.6339573537018701</v>
+        <v>2.6136803071023702</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5475,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2.71434391666679</v>
+        <v>2.69405639145277</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5510,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2.7947055854570002</v>
+        <v>2.7744270937220699</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5545,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2.8750439632264202</v>
+        <v>2.8547924909323501</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5580,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.9553605498878701</v>
+        <v>2.9351526590034198</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5615,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>3.0356567487616202</v>
+        <v>3.0155076727686501</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5650,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>3.1159338727958801</v>
+        <v>3.0958576059904401</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5685,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>3.1961931503866099</v>
+        <v>3.1762025313756101</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5720,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>3.2764357308226102</v>
+        <v>3.2565425205905001</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5755,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>3.3566626893798999</v>
+        <v>3.3368776442758201</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5790,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>3.4368750320880599</v>
+        <v>3.4172079720613602</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5825,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>3.5170737001896302</v>
+        <v>3.4975335725804499</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5860,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>3.5972595743122699</v>
+        <v>3.5778545134842301</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5895,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>3.6774334783723299</v>
+        <v>3.6581708614556701</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5930,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>3.75759618322699</v>
+        <v>3.7384826822234798</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5965,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>3.8377484100911499</v>
+        <v>3.81879004057572</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6000,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>3.9178908337343801</v>
+        <v>3.8990930003732802</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6035,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>3.9980240854719402</v>
+        <v>3.97939162456316</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -6070,13 +6080,13 @@
         <v>6.2735450000000004</v>
       </c>
       <c r="J66">
-        <v>4.0997414586719101</v>
+        <v>4.0851755441925599</v>
       </c>
       <c r="K66">
-        <v>-5.4156353510810403E-3</v>
+        <v>2.30389789849508E-3</v>
       </c>
       <c r="L66">
-        <v>-5.31917667147234E-2</v>
+        <v>2.17758401788254E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6105,13 +6115,13 @@
         <v>6.2647310000000003</v>
       </c>
       <c r="J67">
-        <v>4.1782874407125501</v>
+        <v>4.1650451984305201</v>
       </c>
       <c r="K67">
-        <v>-8.0724529542346903E-3</v>
+        <v>3.78156209200485E-3</v>
       </c>
       <c r="L67">
-        <v>-8.7003872446273903E-2</v>
+        <v>4.0274676164998399E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6140,13 +6150,13 @@
         <v>6.256697</v>
       </c>
       <c r="J68">
-        <v>4.2568050490900697</v>
+        <v>4.2448156801907402</v>
       </c>
       <c r="K68">
-        <v>-1.0759292249817601E-2</v>
+        <v>5.2793428327921202E-3</v>
       </c>
       <c r="L68">
-        <v>-0.12121010137767201</v>
+        <v>5.90485977243791E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6175,13 +6185,13 @@
         <v>6.2493889999999999</v>
       </c>
       <c r="J69">
-        <v>4.33523325974169</v>
+        <v>4.32443017479254</v>
       </c>
       <c r="K69">
-        <v>-1.34984505819524E-2</v>
+        <v>6.7940362200982797E-3</v>
       </c>
       <c r="L69">
-        <v>-0.15612158768322601</v>
+        <v>7.8071649743008495E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6210,13 +6220,13 @@
         <v>6.2427619999999999</v>
       </c>
       <c r="J70">
-        <v>4.4135083138401496</v>
+        <v>4.4038352086359698</v>
       </c>
       <c r="K70">
-        <v>-1.6310314175211098E-2</v>
+        <v>8.3227579573434598E-3</v>
       </c>
       <c r="L70">
-        <v>-0.192029004632045</v>
+        <v>9.7321473501901595E-2</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6245,13 +6255,13 @@
         <v>6.2367739999999996</v>
       </c>
       <c r="J71">
-        <v>4.4915606968985404</v>
+        <v>4.4829804368999397</v>
       </c>
       <c r="K71">
-        <v>-1.9213585732285501E-2</v>
+        <v>9.8629287600899493E-3</v>
       </c>
       <c r="L71">
-        <v>-0.22920831406884501</v>
+        <v>0.116779076479743</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6280,13 +6290,13 @@
         <v>6.2313890000000001</v>
       </c>
       <c r="J72">
-        <v>4.5693121970598902</v>
+        <v>4.5618184547325402</v>
       </c>
       <c r="K72">
-        <v>-2.2225426643712201E-2</v>
+        <v>1.1412258366460501E-2</v>
       </c>
       <c r="L72">
-        <v>-0.26792571246201402</v>
+        <v>0.136428609065322</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6315,13 +6325,13 @@
         <v>6.2265750000000004</v>
       </c>
       <c r="J73">
-        <v>4.6466728941499102</v>
+        <v>4.6403046261283798</v>
       </c>
       <c r="K73">
-        <v>-2.53615060192591E-2</v>
+        <v>1.2968729038513101E-2</v>
       </c>
       <c r="L73">
-        <v>-0.30844193426946798</v>
+        <v>0.15625715532414899</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6350,13 +6360,13 @@
         <v>6.2223059999999997</v>
       </c>
       <c r="J74">
-        <v>4.7235379493553404</v>
+        <v>4.7183969261876797</v>
       </c>
       <c r="K74">
-        <v>-2.8635946566053099E-2</v>
+        <v>1.45305791821375E-2</v>
       </c>
       <c r="L74">
-        <v>-0.35101605238468397</v>
+        <v>0.176254542321503</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6385,13 +6395,13 @@
         <v>6.2185560000000004</v>
       </c>
       <c r="J75">
-        <v>4.7997840733532904</v>
+        <v>4.7960557935563601</v>
       </c>
       <c r="K75">
-        <v>-3.2061153280195903E-2</v>
+        <v>1.60962875214655E-2</v>
       </c>
       <c r="L75">
-        <v>-0.39590889688214997</v>
+        <v>0.19641317070275199</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6420,13 +6430,13 @@
         <v>6.2153049999999999</v>
       </c>
       <c r="J76">
-        <v>4.8752655503370699</v>
+        <v>4.8732439906477101</v>
       </c>
       <c r="K76">
-        <v>-3.5647505137023E-2</v>
+        <v>1.76645581162326E-2</v>
       </c>
       <c r="L76">
-        <v>-0.44338619776208199</v>
+        <v>0.216727867936232</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6455,13 +6465,13 @@
         <v>6.2125370000000002</v>
       </c>
       <c r="J77">
-        <v>4.94980968800939</v>
+        <v>4.9499264698452601</v>
       </c>
       <c r="K77">
-        <v>-3.9402882314154099E-2</v>
+        <v>1.9234306413711499E-2</v>
       </c>
       <c r="L77">
-        <v>-0.493721544822323</v>
+        <v>0.23719576491062799</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6490,13 +6500,13 @@
         <v>6.2102360000000001</v>
       </c>
       <c r="J78">
-        <v>5.0232115497575496</v>
+        <v>5.0260702442999996</v>
       </c>
       <c r="K78">
-        <v>-4.3331991581568703E-2</v>
+        <v>2.08046464453586E-2</v>
       </c>
       <c r="L78">
-        <v>-0.54719924805656805</v>
+        <v>0.25781619600842398</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6525,13 +6535,13 @@
         <v>6.2083909999999998</v>
       </c>
       <c r="J79">
-        <v>5.0952278055382001</v>
+        <v>5.1016442622613898</v>
       </c>
       <c r="K79">
-        <v>-4.7435439735417403E-2</v>
+        <v>2.2374879238274501E-2</v>
       </c>
       <c r="L79">
-        <v>-0.60411717452082803</v>
+        <v>0.27859062267979601</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6560,13 +6570,13 @@
         <v>6.2069910000000004</v>
       </c>
       <c r="J80">
-        <v>5.1655695124703502</v>
+        <v>5.1766192840674901</v>
       </c>
       <c r="K80">
-        <v>-5.1708488473131697E-2</v>
+        <v>2.3944482466127199E-2</v>
       </c>
       <c r="L80">
-        <v>-0.66478963182058504</v>
+        <v>0.29952258034312101</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6595,13 +6605,13 @@
         <v>6.2060310000000003</v>
       </c>
       <c r="J81">
-        <v>5.2340370033637402</v>
+        <v>5.2509677610901901</v>
       </c>
       <c r="K81">
-        <v>-5.1840554101368203E-2</v>
+        <v>2.5513101352450999E-2</v>
       </c>
       <c r="L81">
-        <v>-0.66671851022297401</v>
+        <v>0.320617648631837</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6630,13 +6640,13 @@
         <v>6.2055040000000004</v>
       </c>
       <c r="J82">
-        <v>5.30326981878338</v>
+        <v>5.3246637159964498</v>
       </c>
       <c r="K82">
-        <v>-5.2000942963555903E-2</v>
+        <v>2.7080540819920999E-2</v>
       </c>
       <c r="L82">
-        <v>-0.66903516561659804</v>
+        <v>0.34188344509444701</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6665,13 +6675,13 @@
         <v>6.2054080000000003</v>
       </c>
       <c r="J83">
-        <v>5.37319264043981</v>
+        <v>5.3976826237514199</v>
       </c>
       <c r="K83">
-        <v>-5.2198077810207702E-2</v>
+        <v>2.86467588788668E-2</v>
       </c>
       <c r="L83">
-        <v>-0.67185447867735504</v>
+        <v>0.36332964277029001</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6700,13 +6710,13 @@
         <v>6.2057440000000001</v>
       </c>
       <c r="J84">
-        <v>5.4437272900647198</v>
+        <v>5.47000129278854</v>
       </c>
       <c r="K84">
-        <v>-5.2441106650836497E-2</v>
+        <v>3.02118612462101E-2</v>
       </c>
       <c r="L84">
-        <v>-0.67529998922020695</v>
+        <v>0.38496801236850497</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6735,13 +6745,13 @@
         <v>6.2065109999999999</v>
       </c>
       <c r="J85">
-        <v>5.5147920417380503</v>
+        <v>5.5415977457603898</v>
       </c>
       <c r="K85">
-        <v>-5.2740001817214499E-2</v>
+        <v>3.1776097191909297E-2</v>
       </c>
       <c r="L85">
-        <v>-0.67950591968316698</v>
+        <v>0.40681249020034999</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -6770,13 +6780,13 @@
         <v>6.2077159999999996</v>
       </c>
       <c r="J86">
-        <v>5.5863007671399503</v>
+        <v>5.6124510992346703</v>
       </c>
       <c r="K86">
-        <v>-5.3105662284991702E-2</v>
+        <v>3.3339856617384298E-2</v>
       </c>
       <c r="L86">
-        <v>-0.68461938351124396</v>
+        <v>0.42887927349343702</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6805,13 +6815,13 @@
         <v>6.2093619999999996</v>
       </c>
       <c r="J87">
-        <v>5.6581618668073101</v>
+        <v>5.6825414416270901</v>
       </c>
       <c r="K87">
-        <v>-5.3550017731410902E-2</v>
+        <v>3.4903668381081901E-2</v>
       </c>
       <c r="L87">
-        <v>-0.69080283721758295</v>
+        <v>0.45118694528789099</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6840,13 +6850,13 @@
         <v>6.2114599999999998</v>
       </c>
       <c r="J88">
-        <v>5.7302769283599302</v>
+        <v>5.7518497085615703</v>
       </c>
       <c r="K88">
-        <v>-5.4086131417101502E-2</v>
+        <v>3.6468199898436797E-2</v>
       </c>
       <c r="L88">
-        <v>-0.69823684334755498</v>
+        <v>0.47375663177543798</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6875,13 +6885,13 @@
         <v>6.2140190000000004</v>
       </c>
       <c r="J89">
-        <v>5.8025390367512797</v>
+        <v>5.8203575547112099</v>
       </c>
       <c r="K89">
-        <v>-5.47282968518924E-2</v>
+        <v>3.8034258058403901E-2</v>
       </c>
       <c r="L89">
-        <v>-0.70712322302211905</v>
+        <v>0.496612195738596</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6910,13 +6920,13 @@
         <v>6.2170540000000001</v>
       </c>
       <c r="J90">
-        <v>5.8748306408259099</v>
+        <v>5.8880472210077901</v>
       </c>
       <c r="K90">
-        <v>-5.54921199556557E-2</v>
+        <v>3.9602791512318998E-2</v>
       </c>
       <c r="L90">
-        <v>-0.71768869174691396</v>
+        <v>0.51978047064645305</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6945,13 +6955,13 @@
         <v>6.22058</v>
       </c>
       <c r="J91">
-        <v>5.9470208532376398</v>
+        <v>5.9549013958825201</v>
       </c>
       <c r="K91">
-        <v>-5.6394573493400602E-2</v>
+        <v>4.1174894408328902E-2</v>
       </c>
       <c r="L91">
-        <v>-0.73018909175005897</v>
+        <v>0.54329154108616196</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6980,13 +6990,13 @@
         <v>6.2246160000000001</v>
       </c>
       <c r="J92">
-        <v>6.0189620252146803</v>
+        <v>6.0209030689366596</v>
       </c>
       <c r="K92">
-        <v>-5.7454003070383598E-2</v>
+        <v>4.2751811659512501E-2</v>
       </c>
       <c r="L92">
-        <v>-0.74491435926361105</v>
+        <v>0.56717907650176602</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -7015,13 +7025,13 @@
         <v>6.2291860000000003</v>
       </c>
       <c r="J93">
-        <v>6.0904853909599899</v>
+        <v>6.0860353750975804</v>
       </c>
       <c r="K93">
-        <v>-5.8690052590280199E-2</v>
+        <v>4.4334945846760197E-2</v>
       </c>
       <c r="L93">
-        <v>-0.76219439742394401</v>
+        <v>0.59148072675255003</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -7050,13 +7060,13 @@
         <v>6.2343140000000004</v>
       </c>
       <c r="J94">
-        <v>6.1613955151374604</v>
+        <v>6.1502814268837103</v>
       </c>
       <c r="K94">
-        <v>-6.01234597852306E-2</v>
+        <v>4.5925865873245798E-2</v>
       </c>
       <c r="L94">
-        <v>-0.78240606703308002</v>
+        <v>0.61623858994500103</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -7085,13 +7095,13 @@
         <v>6.24003</v>
       </c>
       <c r="J95">
-        <v>6.2314631962923404</v>
+        <v>6.2136241318744796</v>
       </c>
       <c r="K95">
-        <v>-6.1775646043184702E-2</v>
+        <v>4.75263174887419E-2</v>
       </c>
       <c r="L95">
-        <v>-0.80598156035901802</v>
+        <v>0.64149976517894403</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -7120,13 +7130,13 @@
         <v>6.2463689999999996</v>
       </c>
       <c r="J96">
-        <v>6.3004163730043903</v>
+        <v>6.2760459917938798</v>
       </c>
       <c r="K96">
-        <v>-6.3667984452044399E-2</v>
+        <v>4.9138235800733801E-2</v>
       </c>
       <c r="L96">
-        <v>-0.83341849124175404</v>
+        <v>0.66731700560677998</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -7155,13 +7165,13 @@
         <v>6.2533690000000002</v>
       </c>
       <c r="J97">
-        <v>6.3679284405198997</v>
+        <v>6.3375288787586097</v>
       </c>
       <c r="K97">
-        <v>-6.5820568172115401E-2</v>
+        <v>5.0763759872760897E-2</v>
       </c>
       <c r="L97">
-        <v>-0.86529212203029005</v>
+        <v>0.69374949052949098</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -7190,13 +7200,13 @@
         <v>6.2610749999999999</v>
       </c>
       <c r="J98">
-        <v>6.4336032042173104</v>
+        <v>6.3980537831532596</v>
       </c>
       <c r="K98">
-        <v>-6.8250206097917598E-2</v>
+        <v>5.2405249459569897E-2</v>
       </c>
       <c r="L98">
-        <v>-0.90227025903797997</v>
+        <v>0.72086373909729695</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -7225,13 +7235,13 @@
         <v>6.2695360000000004</v>
       </c>
       <c r="J99">
-        <v>6.4969554622094501</v>
+        <v>6.4576005261881697</v>
       </c>
       <c r="K99">
-        <v>-7.0967225882736004E-2</v>
+        <v>5.4065303845598302E-2</v>
       </c>
       <c r="L99">
-        <v>-0.94513149032121202</v>
+        <v>0.74873469292720896</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -7260,13 +7270,13 @@
         <v>6.2788110000000001</v>
       </c>
       <c r="J100">
-        <v>6.5573859135729204</v>
+        <v>6.5161474284022196</v>
       </c>
       <c r="K100">
-        <v>-7.3970436984503202E-2</v>
+        <v>5.5746782607524699E-2</v>
       </c>
       <c r="L100">
-        <v>-0.99478761993410303</v>
+        <v>0.77744700057278804</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -7295,13 +7305,13 @@
         <v>5.7780000000000001E-3</v>
       </c>
       <c r="J101">
-        <v>8.7918295718220101</v>
+        <v>6.6404767577950796</v>
       </c>
       <c r="K101">
-        <v>-0.118851033716027</v>
+        <v>5.6238616182417503E-2</v>
       </c>
       <c r="L101">
-        <v>-1.01487072316702</v>
+        <v>0.781402873348227</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -7330,13 +7340,13 @@
         <v>1.6882000000000001E-2</v>
       </c>
       <c r="J102">
-        <v>8.7673258502883904</v>
+        <v>6.6978836876214798</v>
       </c>
       <c r="K102">
-        <v>-0.117429608404801</v>
+        <v>5.5083682421978697E-2</v>
       </c>
       <c r="L102">
-        <v>-1.0728143363087399</v>
+        <v>0.76128721862796001</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -7365,13 +7375,13 @@
         <v>2.9021999999999999E-2</v>
       </c>
       <c r="J103">
-        <v>8.7474255525977593</v>
+        <v>6.75736124292707</v>
       </c>
       <c r="K103">
-        <v>-0.117380098730984</v>
+        <v>5.3922319605716397E-2</v>
       </c>
       <c r="L103">
-        <v>-1.07530221726606</v>
+        <v>0.74176363115909205</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -7400,13 +7410,13 @@
         <v>4.2293999999999998E-2</v>
       </c>
       <c r="J104">
-        <v>8.7293429250075896</v>
+        <v>6.81886958666502</v>
       </c>
       <c r="K104">
-        <v>-0.117260568530626</v>
+        <v>5.2775311727829601E-2</v>
       </c>
       <c r="L104">
-        <v>-1.0819123439662699</v>
+        <v>0.72311778769575497</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -7435,13 +7445,13 @@
         <v>5.6807000000000003E-2</v>
       </c>
       <c r="J105">
-        <v>8.7129293259018592</v>
+        <v>6.8823526868362999</v>
       </c>
       <c r="K105">
-        <v>-0.11707435123458799</v>
+        <v>5.1665710101401502E-2</v>
       </c>
       <c r="L105">
-        <v>-1.09325716271951</v>
+        <v>0.70564087418700905</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -7470,13 +7480,13 @@
         <v>7.2685E-2</v>
       </c>
       <c r="J106">
-        <v>8.6979713613928809</v>
+        <v>6.9477404074316098</v>
       </c>
       <c r="K106">
-        <v>-0.116822837806702</v>
+        <v>5.0618691391420202E-2</v>
       </c>
       <c r="L106">
-        <v>-1.1100702610520601</v>
+        <v>0.68962977563012196</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -7505,13 +7515,13 @@
         <v>9.0069999999999997E-2</v>
       </c>
       <c r="J107">
-        <v>8.6841831848142998</v>
+        <v>7.0149508271090104</v>
       </c>
       <c r="K107">
-        <v>-0.116503355011928</v>
+        <v>4.9661426967767201E-2</v>
       </c>
       <c r="L107">
-        <v>-1.1332368948843099</v>
+        <v>0.67538794070677899</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -7540,13 +7550,13 @@
         <v>0.109124</v>
       </c>
       <c r="J108">
-        <v>8.6711964892641795</v>
+        <v>7.0838927004790699</v>
       </c>
       <c r="K108">
-        <v>-0.11610588851525799</v>
+        <v>4.8822983127920903E-2</v>
       </c>
       <c r="L108">
-        <v>-1.1638330123979399</v>
+        <v>0.66322693512405895</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -7575,13 +7585,13 @@
         <v>0.13002900000000001</v>
       </c>
       <c r="J109">
-        <v>8.65854750663995</v>
+        <v>7.1544679815882501</v>
       </c>
       <c r="K109">
-        <v>-0.11560799134789</v>
+        <v>4.8134266689163499E-2</v>
       </c>
       <c r="L109">
-        <v>-1.20317532718731</v>
+        <v>0.65346863778634201</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -7610,13 +7620,13 @@
         <v>0.15299599999999999</v>
       </c>
       <c r="J110">
-        <v>8.6456601951140204</v>
+        <v>7.2265743388020303</v>
       </c>
       <c r="K110">
-        <v>-0.114966830554437</v>
+        <v>4.7628022484069402E-2</v>
       </c>
       <c r="L110">
-        <v>-1.25288566260255</v>
+        <v>0.64644795463111204</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -7645,13 +7655,13 @@
         <v>0.17826</v>
       </c>
       <c r="J111">
-        <v>8.6318247298781596</v>
+        <v>7.3001076028598497</v>
       </c>
       <c r="K111">
-        <v>-0.11410671092793501</v>
+        <v>4.7338877610243899E-2</v>
       </c>
       <c r="L111">
-        <v>-1.3149735001123599</v>
+        <v>0.64251581062391305</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -7680,13 +7690,13 @@
         <v>0.20608699999999999</v>
       </c>
       <c r="J112">
-        <v>8.6161257008543704</v>
+        <v>7.3749641029072501</v>
       </c>
       <c r="K112">
-        <v>-0.113884775591947</v>
+        <v>4.7303411099996202E-2</v>
       </c>
       <c r="L112">
-        <v>-1.3291094414323099</v>
+        <v>0.642042017331795</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -7715,13 +7725,13 @@
         <v>0.23677300000000001</v>
       </c>
       <c r="J113">
-        <v>8.5979887350333595</v>
+        <v>7.4510428562525801</v>
       </c>
       <c r="K113">
-        <v>-0.11340191539812</v>
+        <v>4.7560205016010097E-2</v>
       </c>
       <c r="L113">
-        <v>-1.35572614049788</v>
+        <v>0.64541737417586698</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -7750,13 +7760,13 @@
         <v>0.27064300000000002</v>
       </c>
       <c r="J114">
-        <v>8.57664160618293</v>
+        <v>7.5282475839868903</v>
       </c>
       <c r="K114">
-        <v>-0.11250481460077499</v>
+        <v>4.81498015155487E-2</v>
       </c>
       <c r="L114">
-        <v>-1.39772585172696</v>
+        <v>0.65305401839918797</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -7785,13 +7795,13 @@
         <v>0.30804599999999999</v>
       </c>
       <c r="J115">
-        <v>8.5510106277912001</v>
+        <v>7.6064885248738596</v>
       </c>
       <c r="K115">
-        <v>-0.110939530026733</v>
+        <v>4.9114447647544898E-2</v>
       </c>
       <c r="L115">
-        <v>-1.4587201281928901</v>
+        <v>0.66538256720465305</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -7820,13 +7830,13 @@
         <v>0.34934500000000002</v>
       </c>
       <c r="J116">
-        <v>8.5195268880583299</v>
+        <v>7.6856840144235496</v>
       </c>
       <c r="K116">
-        <v>-0.11025778159225599</v>
+        <v>5.0497454807215E-2</v>
       </c>
       <c r="L116">
-        <v>-1.4803707298706801</v>
+        <v>0.68284399845937804</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -7855,13 +7865,13 @@
         <v>0.394899</v>
       </c>
       <c r="J117">
-        <v>8.4818667668253909</v>
+        <v>7.7657617885663299</v>
       </c>
       <c r="K117">
-        <v>-0.108598198877672</v>
+        <v>5.2341937804929399E-2</v>
       </c>
       <c r="L117">
-        <v>-1.5244096135429199</v>
+        <v>0.70587357096162695</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7890,13 +7900,13 @@
         <v>0.44503100000000001</v>
       </c>
       <c r="J118">
-        <v>8.4359943927590901</v>
+        <v>7.8466599700749997</v>
       </c>
       <c r="K118">
-        <v>-0.108189941976108</v>
+        <v>5.4688647703070199E-2</v>
       </c>
       <c r="L118">
-        <v>-1.5333092210174299</v>
+        <v>0.73487362947764001</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7925,13 +7935,13 @@
         <v>0.49998500000000001</v>
       </c>
       <c r="J119">
-        <v>8.3816560629514107</v>
+        <v>7.92837800129029</v>
       </c>
       <c r="K119">
-        <v>-0.106261339672828</v>
+        <v>5.50059455841415E-2</v>
       </c>
       <c r="L119">
-        <v>-1.5687868128201701</v>
+        <v>0.73875644801589502</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -7960,13 +7970,13 @@
         <v>0.559867</v>
       </c>
       <c r="J120">
-        <v>8.3160514384126891</v>
+        <v>8.0116232074782907</v>
       </c>
       <c r="K120">
-        <v>-0.105948236413217</v>
+        <v>5.5977807887579903E-2</v>
       </c>
       <c r="L120">
-        <v>-1.5735593556798799</v>
+        <v>0.750430611575575</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -7995,13 +8005,13 @@
         <v>0.62457799999999997</v>
       </c>
       <c r="J121">
-        <v>8.2390687393374495</v>
+        <v>8.0961414548152604</v>
       </c>
       <c r="K121">
-        <v>-0.103276970454589</v>
+        <v>5.7628346105070498E-2</v>
       </c>
       <c r="L121">
-        <v>-1.6082450012004801</v>
+        <v>0.76995690907691505</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -8030,13 +8040,13 @@
         <v>0.69373600000000002</v>
       </c>
       <c r="J122">
-        <v>8.1469668328077702</v>
+        <v>8.1817106736717093</v>
       </c>
       <c r="K122">
-        <v>-0.10272209478470699</v>
+        <v>5.9952509924668003E-2</v>
       </c>
       <c r="L122">
-        <v>-1.6142695122855399</v>
+        <v>0.79711144627149</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -8065,13 +8075,13 @@
         <v>0.76663300000000001</v>
       </c>
       <c r="J123">
-        <v>8.0402885555945005</v>
+        <v>8.2681923417304102</v>
       </c>
       <c r="K123">
-        <v>-9.9000877967388504E-2</v>
+        <v>6.01953417781406E-2</v>
       </c>
       <c r="L123">
-        <v>-1.6491379849888399</v>
+        <v>0.79991933863457898</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -8100,13 +8110,13 @@
         <v>0.84223000000000003</v>
       </c>
       <c r="J124">
-        <v>7.9148865992565698</v>
+        <v>8.3555819457314193</v>
       </c>
       <c r="K124">
-        <v>-9.8815067148315006E-2</v>
+        <v>6.1109968541804997E-2</v>
       </c>
       <c r="L124">
-        <v>-1.6506197057571399</v>
+        <v>0.81038503853774102</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -8135,13 +8145,13 @@
         <v>0.91920999999999997</v>
       </c>
       <c r="J125">
-        <v>7.7735660042118297</v>
+        <v>8.4434348503313004</v>
       </c>
       <c r="K125">
-        <v>-9.5913328851815194E-2</v>
+        <v>6.2599470404953506E-2</v>
       </c>
       <c r="L125">
-        <v>-1.67114983870124</v>
+        <v>0.82733791189988304</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -8170,13 +8180,13 @@
         <v>0.99611099999999997</v>
       </c>
       <c r="J126">
-        <v>7.6141266965087899</v>
+        <v>8.5313942191345404</v>
       </c>
       <c r="K126">
-        <v>-9.0302423253446798E-2</v>
+        <v>6.4540714346538297E-2</v>
       </c>
       <c r="L126">
-        <v>-1.7063268044151201</v>
+        <v>0.84940410999576399</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -8205,13 +8215,13 @@
         <v>1.071491</v>
       </c>
       <c r="J127">
-        <v>7.4346844232338496</v>
+        <v>8.6191925011406294</v>
       </c>
       <c r="K127">
-        <v>-8.2416144494636703E-2</v>
+        <v>6.6804080023312201E-2</v>
       </c>
       <c r="L127">
-        <v>-1.7502473758716399</v>
+        <v>0.87517755840974998</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -8240,13 +8250,13 @@
         <v>1.1440840000000001</v>
       </c>
       <c r="J128">
-        <v>7.2343140650880802</v>
+        <v>8.7066489117612704</v>
       </c>
       <c r="K128">
-        <v>-7.32147296887138E-2</v>
+        <v>6.9272679104604495E-2</v>
       </c>
       <c r="L128">
-        <v>-1.79613717204294</v>
+        <v>0.90339668796980399</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -8275,13 +8285,13 @@
         <v>1.2129129999999999</v>
       </c>
       <c r="J129">
-        <v>7.0134911981099499</v>
+        <v>8.79366374351814</v>
       </c>
       <c r="K129">
-        <v>-6.4154602206642597E-2</v>
+        <v>7.1855759279985998E-2</v>
       </c>
       <c r="L129">
-        <v>-1.83714310985472</v>
+        <v>0.93307348859929995</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -8310,13 +8320,13 @@
         <v>1.2773410000000001</v>
       </c>
       <c r="J130">
-        <v>6.7742123531271599</v>
+        <v>8.8802107694129297</v>
       </c>
       <c r="K130">
-        <v>-5.6991506976246498E-2</v>
+        <v>7.4494277389099098E-2</v>
       </c>
       <c r="L130">
-        <v>-1.8670703547185199</v>
+        <v>0.96355057431827096</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -8345,13 +8355,13 @@
         <v>1.337048</v>
       </c>
       <c r="J131">
-        <v>6.5198460537764804</v>
+        <v>8.9663288023078103</v>
       </c>
       <c r="K131">
-        <v>-5.34758375736046E-2</v>
+        <v>7.7159593411954802E-2</v>
       </c>
       <c r="L131">
-        <v>-1.8808907608555101</v>
+        <v>0.99449026729679602</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -8380,13 +8390,13 @@
         <v>1.3919760000000001</v>
       </c>
       <c r="J132">
-        <v>6.2553000940897103</v>
+        <v>9.0521130488773593</v>
       </c>
       <c r="K132">
-        <v>-3.8406634755607801E-2</v>
+        <v>7.9847922966888599E-2</v>
       </c>
       <c r="L132">
-        <v>-1.93779178480271</v>
+        <v>1.02581828057247</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -8415,13 +8425,13 @@
         <v>1.442261</v>
       </c>
       <c r="J133">
-        <v>5.9729006924136296</v>
+        <v>9.1377499362334405</v>
       </c>
       <c r="K133">
-        <v>-2.6735397755914901E-2</v>
+        <v>7.9883397099740794E-2</v>
       </c>
       <c r="L133">
-        <v>-1.9790971084935201</v>
+        <v>1.02623251948187</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -8450,13 +8460,13 @@
         <v>1.4881599999999999</v>
       </c>
       <c r="J134">
-        <v>5.6761047526339503</v>
+        <v>9.2220666088946004</v>
       </c>
       <c r="K134">
-        <v>-1.9491710967285501E-2</v>
+        <v>8.0126447360946595E-2</v>
       </c>
       <c r="L134">
-        <v>-2.0034985508892</v>
+        <v>1.02911509988198</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -8485,13 +8495,13 @@
         <v>1.5300009999999999</v>
       </c>
       <c r="J135">
-        <v>5.3682955589088603</v>
+        <v>9.30515802561799</v>
       </c>
       <c r="K135">
-        <v>-1.7333298720887302E-2</v>
+        <v>8.0584203830529402E-2</v>
       </c>
       <c r="L135">
-        <v>-2.0105106119797198</v>
+        <v>1.03462411461262</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -8520,13 +8530,13 @@
         <v>1.5681400000000001</v>
       </c>
       <c r="J136">
-        <v>5.0532507380831797</v>
+        <v>9.3871966784437397</v>
       </c>
       <c r="K136" s="1">
-        <v>-7.6537016612041996E-4</v>
+        <v>8.1266824587363604E-2</v>
       </c>
       <c r="L136">
-        <v>-2.0630513276193501</v>
+        <v>1.04294464378227</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -8555,13 +8565,13 @@
         <v>1.6029310000000001</v>
       </c>
       <c r="J137">
-        <v>4.7214383035227598</v>
+        <v>9.4684168516482803</v>
       </c>
       <c r="K137">
-        <v>1.2859497088847101E-2</v>
+        <v>8.2186213329592001E-2</v>
       </c>
       <c r="L137">
-        <v>-2.1040902279634399</v>
+        <v>1.05426386953738</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -8590,13 +8600,13 @@
         <v>1.6347149999999999</v>
       </c>
       <c r="J138">
-        <v>4.3742520807314298</v>
+        <v>9.5491014036043698</v>
       </c>
       <c r="K138">
-        <v>2.3350566497299399E-2</v>
+        <v>8.3355517544189003E-2</v>
       </c>
       <c r="L138">
-        <v>-2.13429844869402</v>
+        <v>1.06875514865975</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -8625,13 +8635,13 @@
         <v>1.6638059999999999</v>
       </c>
       <c r="J139">
-        <v>4.0126852960942703</v>
+        <v>9.6295706011412197</v>
       </c>
       <c r="K139">
-        <v>3.0624597915205099E-2</v>
+        <v>8.4789052011030999E-2</v>
       </c>
       <c r="L139">
-        <v>-2.1544138204808299</v>
+        <v>1.0865679626195801</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8660,13 +8670,13 @@
         <v>1.690491</v>
       </c>
       <c r="J140">
-        <v>3.6374880070091802</v>
+        <v>9.7101724838692505</v>
       </c>
       <c r="K140">
-        <v>3.4655040354989598E-2</v>
+        <v>8.6502351292843005E-2</v>
       </c>
       <c r="L140">
-        <v>-2.16515560230369</v>
+        <v>1.10782108045192</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -8695,13 +8705,13 @@
         <v>1.7150270000000001</v>
       </c>
       <c r="J141">
-        <v>3.2493238467871199</v>
+        <v>9.7912742524524692</v>
       </c>
       <c r="K141">
-        <v>3.5437974139473402E-2</v>
+        <v>8.8512130148638707E-2</v>
       </c>
       <c r="L141">
-        <v>-2.1671726167603702</v>
+        <v>1.1325969594951899</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8730,13 +8740,13 @@
         <v>1.7376419999999999</v>
       </c>
       <c r="J142">
-        <v>2.8495556725777802</v>
+        <v>9.8732542283157407</v>
       </c>
       <c r="K142">
-        <v>5.8119293414630402E-2</v>
+        <v>9.0835995334047098E-2</v>
       </c>
       <c r="L142">
-        <v>-2.2238480367210798</v>
+        <v>1.16093611211214</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8765,13 +8775,13 @@
         <v>1.7585379999999999</v>
       </c>
       <c r="J143">
-        <v>2.4253008158578302</v>
+        <v>9.9565363574946595</v>
       </c>
       <c r="K143">
-        <v>8.1029872286700999E-2</v>
+        <v>9.0875866406957703E-2</v>
       </c>
       <c r="L143">
-        <v>-2.2777975595747399</v>
+        <v>1.1614148591165401</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8800,13 +8810,13 @@
         <v>1.7778940000000001</v>
       </c>
       <c r="J144">
-        <v>1.97543360714891</v>
-      </c>
-      <c r="K144">
-        <v>0.104433126121928</v>
+        <v>10.0393286090953</v>
+      </c>
+      <c r="K144" s="1">
+        <v>9.13759318050337E-2</v>
       </c>
       <c r="L144">
-        <v>-2.3297732873919101</v>
+        <v>1.1674547880649</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8835,13 +8845,13 @@
         <v>1.7958670000000001</v>
       </c>
       <c r="J145">
-        <v>1.49852929097624</v>
+        <v>10.1220739403305</v>
       </c>
       <c r="K145">
-        <v>0.12863454043164699</v>
+        <v>9.2319366729338798E-2</v>
       </c>
       <c r="L145">
-        <v>-2.38047668984226</v>
+        <v>1.17885596359756</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8870,13 +8880,13 @@
         <v>1.812595</v>
       </c>
       <c r="J146">
-        <v>0.99290551864630805</v>
+        <v>10.205235462277599</v>
       </c>
       <c r="K146">
-        <v>0.15398333788962101</v>
+        <v>9.3697610141632401E-2</v>
       </c>
       <c r="L146">
-        <v>-2.4305684649549901</v>
+        <v>1.1954275367803999</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8905,13 +8915,13 @@
         <v>1.828201</v>
       </c>
       <c r="J147">
-        <v>0.45665511632389799</v>
+        <v>10.2892855493791</v>
       </c>
       <c r="K147">
-        <v>0.18087876350207099</v>
+        <v>9.5508892667412207E-2</v>
       </c>
       <c r="L147">
-        <v>-2.48068107615308</v>
+        <v>1.21697423919697</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8940,13 +8950,13 @@
         <v>1.8427899999999999</v>
       </c>
       <c r="J148">
-        <v>-0.11232445399872799</v>
+        <v>10.374695769660701</v>
       </c>
       <c r="K148">
-        <v>0.20978030778981399</v>
+        <v>9.7756305417357095E-2</v>
       </c>
       <c r="L148">
-        <v>-2.5314328556788399</v>
+        <v>1.2432813283048001</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8975,13 +8985,13 @@
         <v>1.8564590000000001</v>
       </c>
       <c r="J149">
-        <v>-0.71629908928907404</v>
+        <v>10.4619269915871</v>
       </c>
       <c r="K149">
-        <v>0.24122148592199499</v>
+        <v>0.100445413125085</v>
       </c>
       <c r="L149">
-        <v>-2.5834430248413698</v>
+        <v>1.2740989219485399</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -9010,13 +9020,13 @@
         <v>1.869292</v>
       </c>
       <c r="J150">
-        <v>-1.3576565907731</v>
+        <v>10.5514736665579</v>
       </c>
       <c r="K150">
-        <v>0.275826875242973</v>
+        <v>0.100768859614974</v>
       </c>
       <c r="L150">
-        <v>-2.6373472288840398</v>
+        <v>1.2777109497915899</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -9045,13 +9055,13 @@
         <v>1.881362</v>
       </c>
       <c r="J151">
-        <v>-2.0388469673379399</v>
+        <v>10.6412754720678</v>
       </c>
       <c r="K151">
-        <v>0.31433190243651699</v>
+        <v>0.101685083029202</v>
       </c>
       <c r="L151">
-        <v>-2.6938132280471399</v>
+        <v>1.28791332400203</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -9080,13 +9090,13 @@
         <v>1.8927369999999999</v>
       </c>
       <c r="J152">
-        <v>-2.7622927374525199</v>
+        <v>10.731897123382501</v>
       </c>
       <c r="K152">
-        <v>0.35760420358551398</v>
+        <v>0.103164569138138</v>
       </c>
       <c r="L152">
-        <v>-2.75355620788054</v>
+        <v>1.30423784096305</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -9115,13 +9125,13 @@
         <v>1.903475</v>
       </c>
       <c r="J153">
-        <v>-3.5318182690428701</v>
+        <v>10.823894763596099</v>
       </c>
       <c r="K153">
-        <v>0.35834653541255701</v>
+        <v>0.10518849979137899</v>
       </c>
       <c r="L153">
-        <v>-2.75452086930671</v>
+        <v>1.32623410327452</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -9150,13 +9160,13 @@
         <v>1.913629</v>
       </c>
       <c r="J154">
-        <v>-4.34365359661368</v>
+        <v>10.9178033737505</v>
       </c>
       <c r="K154">
-        <v>0.40870749034978199</v>
+        <v>0.107744082537767</v>
       </c>
       <c r="L154">
-        <v>-2.8164749419264599</v>
+        <v>1.3534408967243601</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -9185,13 +9195,13 @@
         <v>1.923246</v>
       </c>
       <c r="J155">
-        <v>-5.2072380871865098</v>
+        <v>11.014173681238701</v>
       </c>
       <c r="K155">
-        <v>0.412244087235353</v>
+        <v>0.107792777000716</v>
       </c>
       <c r="L155">
-        <v>-2.8205701719282801</v>
+        <v>1.35394618159969</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -9220,13 +9230,13 @@
         <v>1.9323680000000001</v>
       </c>
       <c r="J156">
-        <v>-6.1215874080415</v>
+        <v>11.110821095357601</v>
       </c>
       <c r="K156">
-        <v>0.41497403422822399</v>
+        <v>0.108572781556425</v>
       </c>
       <c r="L156">
-        <v>-2.8235558348678702</v>
+        <v>1.36201662640472</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -9255,13 +9265,13 @@
         <v>1.9410339999999999</v>
       </c>
       <c r="J157">
-        <v>-7.0899409777113203</v>
+        <v>11.208409429024501</v>
       </c>
       <c r="K157">
-        <v>0.416765426748746</v>
+        <v>0.11002746467970299</v>
       </c>
       <c r="L157">
-        <v>-2.8254057691616001</v>
+        <v>1.3769218444796001</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -9290,13 +9300,13 @@
         <v>1.9492769999999999</v>
       </c>
       <c r="J158">
-        <v>-8.1156958945070699</v>
+        <v>11.307576727501299</v>
       </c>
       <c r="K158">
-        <v>0.41743841496892498</v>
+        <v>0.112116469447506</v>
       </c>
       <c r="L158">
-        <v>-2.8260618597272802</v>
+        <v>1.3979841894360201</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -9325,13 +9335,13 @@
         <v>1.957117</v>
       </c>
       <c r="J159">
-        <v>-9.20022839510575</v>
+        <v>11.408920365698901</v>
       </c>
       <c r="K159">
-        <v>0.48494683426762403</v>
+        <v>0.11480661190947899</v>
       </c>
       <c r="L159">
-        <v>-2.8882282136641702</v>
+        <v>1.4245227164740799</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -9360,13 +9370,13 @@
         <v>1.96455</v>
       </c>
       <c r="J160">
-        <v>-10.3515686592074</v>
-      </c>
-      <c r="K160">
-        <v>0.4902201057951</v>
+        <v>11.512650974784499</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0.11798280828686999</v>
       </c>
       <c r="L160">
-        <v>-2.8928082972581102</v>
+        <v>1.45513281637103</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -9395,13 +9405,13 @@
         <v>1.97157</v>
       </c>
       <c r="J161">
-        <v>-11.561793979964801</v>
+        <v>11.6186269401929</v>
       </c>
       <c r="K161">
-        <v>0.49169023171883702</v>
+        <v>0.11812419903957801</v>
       </c>
       <c r="L161">
-        <v>-2.8940230505568598</v>
+        <v>1.4564669931182801</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -9430,13 +9440,13 @@
         <v>1.978172</v>
       </c>
       <c r="J162">
-        <v>-12.8239148385608</v>
+        <v>11.723682723505799</v>
       </c>
       <c r="K162">
-        <v>0.56567623790612298</v>
+        <v>0.118759071457835</v>
       </c>
       <c r="L162">
-        <v>-2.95257642342898</v>
+        <v>1.46251011297188</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -9465,13 +9475,13 @@
         <v>1.9843550000000001</v>
       </c>
       <c r="J163">
-        <v>-14.135116492283901</v>
+        <v>11.827608410990299</v>
       </c>
       <c r="K163">
-        <v>0.64256752795401695</v>
+        <v>0.119641156839222</v>
       </c>
       <c r="L163">
-        <v>-3.01115119079375</v>
+        <v>1.47099756416665</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -9500,13 +9510,13 @@
         <v>1.9901169999999999</v>
       </c>
       <c r="J164">
-        <v>-15.484619617919</v>
+        <v>11.9299773076451</v>
       </c>
       <c r="K164">
-        <v>0.71927293066588505</v>
+        <v>0.120545010429617</v>
       </c>
       <c r="L164">
-        <v>-3.0679298343865402</v>
+        <v>1.47982671182301</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -9535,13 +9545,13 @@
         <v>1.9954609999999999</v>
       </c>
       <c r="J165">
-        <v>-16.859331769029101</v>
+        <v>12.030150434766</v>
       </c>
       <c r="K165">
-        <v>0.79187211324193196</v>
+        <v>0.121267332678205</v>
       </c>
       <c r="L165">
-        <v>-3.1206912823209998</v>
+        <v>1.4870373255948901</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -9570,13 +9580,13 @@
         <v>2.0003890000000002</v>
       </c>
       <c r="J166">
-        <v>-18.244339277411498</v>
+        <v>12.1272958259503</v>
       </c>
       <c r="K166">
-        <v>0.85576917215694104</v>
+        <v>0.12163193156053401</v>
       </c>
       <c r="L166">
-        <v>-3.1667934031099199</v>
+        <v>1.4907904338586</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -9605,13 +9615,13 @@
         <v>2.0049009999999998</v>
       </c>
       <c r="J167">
-        <v>-19.6235891339226</v>
+        <v>12.2203763433475</v>
       </c>
       <c r="K167">
-        <v>0.90600171381549399</v>
+        <v>0.124421279358047</v>
       </c>
       <c r="L167">
-        <v>-3.20319750284103</v>
+        <v>1.5207485105684899</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -9640,13 +9650,13 @@
         <v>2.0090089999999998</v>
       </c>
       <c r="J168">
-        <v>-20.980635398010801</v>
-      </c>
-      <c r="K168">
-        <v>0.93770554081093405</v>
+        <v>12.310704752528601</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0.12614035851774999</v>
       </c>
       <c r="L168">
-        <v>-3.2265556312500201</v>
+        <v>1.53977764739057</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -9675,13 +9685,13 @@
         <v>2.0127350000000002</v>
       </c>
       <c r="J169">
-        <v>-22.304826088836901</v>
-      </c>
-      <c r="K169">
-        <v>0.94813851805006399</v>
+        <v>12.396898763602399</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0.12684640560636801</v>
       </c>
       <c r="L169">
-        <v>-3.2344342256581999</v>
+        <v>1.5479688347930101</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -9710,13 +9720,13 @@
         <v>2.0161060000000002</v>
       </c>
       <c r="J170">
-        <v>-23.588689595081199</v>
+        <v>12.477973947297301</v>
       </c>
       <c r="K170">
-        <v>1.0170433644266601</v>
+        <v>0.12923121505127599</v>
       </c>
       <c r="L170">
-        <v>-3.2880526990656098</v>
+        <v>1.5773751449651701</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -9745,13 +9755,13 @@
         <v>2.0191430000000001</v>
       </c>
       <c r="J171">
-        <v>-24.811446178361901</v>
+        <v>12.555109911861299</v>
       </c>
       <c r="K171">
-        <v>1.06601461489425</v>
+        <v>0.13045441001070701</v>
       </c>
       <c r="L171">
-        <v>-3.3280811831741</v>
+        <v>1.5932314637598199</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -9780,13 +9790,13 @@
         <v>2.0218669999999999</v>
       </c>
       <c r="J172">
-        <v>-25.9663200012617</v>
+        <v>12.6272037780827</v>
       </c>
       <c r="K172">
-        <v>1.09452048104449</v>
+        <v>0.13070168494639101</v>
       </c>
       <c r="L172">
-        <v>-3.35275927231468</v>
+        <v>1.59666135286113</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -9815,13 +9825,13 @@
         <v>2.0242939999999998</v>
       </c>
       <c r="J173">
-        <v>-27.0489123598358</v>
+        <v>12.6933991774553</v>
       </c>
       <c r="K173">
-        <v>1.1029588980068801</v>
+        <v>0.13224063598442601</v>
       </c>
       <c r="L173">
-        <v>-3.3605537537793202</v>
+        <v>1.61990577582571</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9850,13 +9860,13 @@
         <v>2.0264389999999999</v>
       </c>
       <c r="J174">
-        <v>-28.054870266698501</v>
+        <v>12.754517893509499</v>
       </c>
       <c r="K174">
-        <v>1.15577104666466</v>
+        <v>0.13278663408237801</v>
       </c>
       <c r="L174">
-        <v>-3.4130049631144601</v>
+        <v>1.62883894080877</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9885,13 +9895,13 @@
         <v>2.0283150000000001</v>
       </c>
       <c r="J175">
-        <v>-28.963201811541101</v>
+        <v>12.809673941995699</v>
       </c>
       <c r="K175">
-        <v>1.1887115289146599</v>
+        <v>0.134283353887232</v>
       </c>
       <c r="L175">
-        <v>-3.4492539004120899</v>
+        <v>1.65596837863928</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9920,13 +9930,13 @@
         <v>2.0299320000000001</v>
       </c>
       <c r="J176">
-        <v>-29.772270235748099</v>
+        <v>12.859386076343499</v>
       </c>
       <c r="K176">
-        <v>1.2037768005102101</v>
+        <v>0.13487397218575101</v>
       </c>
       <c r="L176">
-        <v>-3.4678722648732001</v>
+        <v>1.6678485869528299</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9955,13 +9965,13 @@
         <v>2.0312999999999999</v>
       </c>
       <c r="J177">
-        <v>-30.480646373069298</v>
+        <v>12.902857567283201</v>
       </c>
       <c r="K177">
-        <v>1.24828291218292</v>
+        <v>0.136144942139939</v>
       </c>
       <c r="L177">
-        <v>-3.5306181514924901</v>
+        <v>1.69707712209511</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -9990,13 +10000,13 @@
         <v>2.0324260000000001</v>
       </c>
       <c r="J178">
-        <v>-31.072259380296199</v>
+        <v>12.940376941379199</v>
       </c>
       <c r="K178">
-        <v>1.2748451612526801</v>
+        <v>0.136660343844592</v>
       </c>
       <c r="L178">
-        <v>-3.5754860329642502</v>
+        <v>1.7108132064869599</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -10025,13 +10035,13 @@
         <v>2.0333239999999999</v>
       </c>
       <c r="J179">
-        <v>-31.550575727664398</v>
+        <v>12.9712989506819</v>
       </c>
       <c r="K179">
-        <v>1.28722783078894</v>
+        <v>0.137613563722703</v>
       </c>
       <c r="L179">
-        <v>-3.6013682853020099</v>
+        <v>1.7416300301760701</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -10060,13 +10070,13 @@
         <v>2.034017</v>
       </c>
       <c r="J180">
-        <v>-31.926585305918401</v>
+        <v>12.996188503012601</v>
       </c>
       <c r="K180">
-        <v>1.29004211633029</v>
+        <v>0.13802569578906099</v>
       </c>
       <c r="L180">
-        <v>-3.6088527568536399</v>
+        <v>1.7581869533663701</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -10095,13 +10105,13 @@
         <v>2.034535</v>
       </c>
       <c r="J181">
-        <v>-32.214641123296303</v>
+        <v>13.0154031714923</v>
       </c>
       <c r="K181">
-        <v>1.305546151548</v>
+        <v>0.13811808617881499</v>
       </c>
       <c r="L181">
-        <v>-3.6626238975356502</v>
+        <v>1.76299524229625</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -10130,13 +10140,13 @@
         <v>2.0349029999999999</v>
       </c>
       <c r="J182">
-        <v>-32.419659343083303</v>
+        <v>13.0295161466307</v>
       </c>
       <c r="K182">
-        <v>1.3136884949476499</v>
+        <v>0.13849216037024201</v>
       </c>
       <c r="L182">
-        <v>-3.7023182548765101</v>
+        <v>1.7894947310648299</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -10165,13 +10175,13 @@
         <v>2.0351490000000001</v>
       </c>
       <c r="J183">
-        <v>-32.557940741366799</v>
+        <v>13.0394164295392</v>
       </c>
       <c r="K183">
-        <v>1.3174999599469099</v>
+        <v>0.138668761434487</v>
       </c>
       <c r="L183">
-        <v>-3.7298743850915299</v>
+        <v>1.80733082103756</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -10200,13 +10210,13 @@
         <v>2.0352969999999999</v>
       </c>
       <c r="J184">
-        <v>-32.644130601049802</v>
+        <v>13.0457643756596</v>
       </c>
       <c r="K184">
-        <v>1.3190117863876401</v>
+        <v>0.13873931183813701</v>
       </c>
       <c r="L184">
-        <v>-3.7474132397172299</v>
+        <v>1.8184442580081499</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -10235,13 +10245,13 @@
         <v>2.0353720000000002</v>
       </c>
       <c r="J185">
-        <v>-32.691350895161001</v>
+        <v>13.0493081147279</v>
       </c>
       <c r="K185">
-        <v>1.31947170727609</v>
+        <v>0.138760891911134</v>
       </c>
       <c r="L185">
-        <v>-3.7571528305938098</v>
+        <v>1.82453381647505</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -10270,13 +10280,13 @@
         <v>2.0354000000000001</v>
       </c>
       <c r="J186">
-        <v>-32.7116037962059</v>
+        <v>13.050845104650801</v>
       </c>
       <c r="K186">
-        <v>1.3195569088671899</v>
+        <v>0.13876490538337899</v>
       </c>
       <c r="L186">
-        <v>-3.7613596890724401</v>
+        <v>1.8271450652952199</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -10305,13 +10315,13 @@
         <v>2.035406</v>
       </c>
       <c r="J187">
-        <v>-32.716224488228903</v>
+        <v>13.051197646950801</v>
       </c>
       <c r="K187">
-        <v>1.3195613543754201</v>
+        <v>0.13876511525692101</v>
       </c>
       <c r="L187">
-        <v>-3.7623217758833398</v>
+        <v>1.8277403797199301</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -10340,24 +10350,24 @@
         <v>2.035406</v>
       </c>
       <c r="J188">
-        <v>-32.716224488228903</v>
+        <v>13.051197646950801</v>
       </c>
       <c r="K188">
-        <v>1.3195613543754201</v>
+        <v>0.13876511525692101</v>
       </c>
       <c r="L188">
-        <v>-3.7623217758833398</v>
+        <v>1.8277403797199301</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J189">
-        <v>-32.716224488228903</v>
+        <v>13.051197646950801</v>
       </c>
       <c r="K189">
-        <v>1.3195613543754201</v>
+        <v>0.13876511525692101</v>
       </c>
       <c r="L189">
-        <v>-3.7623217758833398</v>
+        <v>1.8277403797199301</v>
       </c>
     </row>
   </sheetData>
